--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="183">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="182">
   <si>
     <t>Table 23: Ecological sustainability</t>
   </si>
@@ -1415,11 +1412,9 @@
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1439,66 +1434,66 @@
     </row>
     <row r="2" spans="1:18" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="13">
         <v>124670</v>
@@ -1513,7 +1508,7 @@
         <v>67162.44</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="13">
         <v>3318.4319999999998</v>
@@ -1551,10 +1546,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="16">
         <v>58173</v>
@@ -1587,7 +1582,7 @@
         <v>27.661999999999999</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="16">
         <v>2342</v>
@@ -1607,10 +1602,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="20">
         <v>1736</v>
@@ -1628,31 +1623,31 @@
         <v>16</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="20">
         <v>2426</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="20">
         <v>22.762599999999999</v>
@@ -1663,10 +1658,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="20">
         <v>3036</v>
@@ -1681,34 +1676,34 @@
         <v>34.520000000000003</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="20">
         <v>2323</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="20">
         <v>1.6394</v>
@@ -1719,10 +1714,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="20">
         <v>11848</v>
@@ -1775,10 +1770,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="20">
         <v>79938</v>
@@ -1831,10 +1826,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="C9" s="20">
         <v>82429</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="20">
         <v>121909</v>
@@ -1943,10 +1938,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="16">
         <v>75261</v>
@@ -1979,7 +1974,7 @@
         <v>1723.9359999999999</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="16">
         <v>2002</v>
@@ -1999,10 +1994,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="23">
         <v>39076</v>
@@ -2032,7 +2027,7 @@
         <v>816.39499999999998</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="24">
         <v>700.52599999999995</v>
@@ -2055,10 +2050,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="27">
         <v>598076</v>
@@ -2111,10 +2106,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="20">
         <v>2783</v>
@@ -2150,7 +2145,7 @@
         <v>9.3239999999999998</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="20">
         <v>6888.5</v>
@@ -2167,10 +2162,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="20">
         <v>47544</v>
@@ -2223,10 +2218,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="20">
         <v>62298</v>
@@ -2241,7 +2236,7 @@
         <v>22333</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="20">
         <v>816.05499999999995</v>
@@ -2256,10 +2251,10 @@
         <v>816.05499999999995</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="20">
         <v>1786</v>
@@ -2279,10 +2274,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="13">
         <v>128400</v>
@@ -2315,16 +2310,16 @@
         <v>1687.43</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="13">
         <v>2115</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="13">
         <v>242.76779999999999</v>
@@ -2335,10 +2330,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="13">
         <v>34200</v>
@@ -2391,10 +2386,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="16">
         <v>234486</v>
@@ -2412,25 +2407,25 @@
         <v>7781</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="16">
         <v>15571.37</v>
@@ -2447,10 +2442,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="C20" s="13">
         <v>2805</v>
@@ -2465,13 +2460,13 @@
         <v>2456.7800000000002</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13">
         <v>146.571</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="13">
         <v>127.422</v>
@@ -2486,13 +2481,13 @@
         <v>7.0220000000000002</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="13">
         <v>307.14659999999998</v>
@@ -2503,10 +2498,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="C21" s="13">
         <v>26767</v>
@@ -2524,22 +2519,22 @@
         <v>1000</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="13">
         <v>2633</v>
@@ -2559,10 +2554,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="20">
         <v>96</v>
@@ -2577,34 +2572,34 @@
         <v>52.52</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="20">
         <v>2446</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="20">
         <v>4.9741999999999997</v>
@@ -2615,10 +2610,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="27">
         <v>539379</v>
@@ -2671,10 +2666,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="C24" s="20">
         <v>186.1</v>
@@ -2689,34 +2684,34 @@
         <v>33.36</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="20">
         <v>1.2433000000000001</v>
@@ -2727,10 +2722,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="20">
         <v>2320</v>
@@ -2748,31 +2743,31 @@
         <v>2</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" s="20">
         <v>2694</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="20">
         <v>0.30180000000000001</v>
@@ -2783,10 +2778,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C26" s="20">
         <v>12176.581700000001</v>
@@ -2822,7 +2817,7 @@
         <v>40.697000000000003</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" s="20">
         <v>4599.34</v>
@@ -2839,10 +2834,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="C27" s="20">
         <v>113624.2497</v>
@@ -2895,10 +2890,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="C28" s="20">
         <v>58037</v>
@@ -2951,10 +2946,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C29" s="20">
         <v>58729.5</v>
@@ -3007,10 +3002,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="20">
         <v>204</v>
@@ -3063,10 +3058,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C31" s="20">
         <v>2634</v>
@@ -3119,10 +3114,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="20">
         <v>46</v>
@@ -3137,13 +3132,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="20">
         <v>16.164000000000001</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="20">
         <v>12.49</v>
@@ -3158,7 +3153,7 @@
         <v>0.124</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="20">
         <v>64.319999999999993</v>
@@ -3175,10 +3170,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="20">
         <v>63766</v>
@@ -3196,31 +3191,31 @@
         <v>1032</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="20">
         <v>373.45920000000001</v>
@@ -3231,10 +3226,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="C34" s="16">
         <v>64688.3</v>
@@ -3252,34 +3247,34 @@
         <v>197.84530000000001</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R34" s="17">
         <v>43122.593800000002</v>
@@ -3287,10 +3282,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="C35" s="20">
         <v>185410.5405</v>
@@ -3308,22 +3303,22 @@
         <v>487.16899999999998</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="20">
         <v>2578</v>
@@ -3343,10 +3338,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="C36" s="20">
         <v>94730</v>
@@ -3399,10 +3394,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C37" s="20">
         <v>24155</v>
@@ -3420,22 +3415,22 @@
         <v>4103</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N37" s="20">
         <v>1981</v>
@@ -3455,10 +3450,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="27">
         <v>680707.27190000005</v>
@@ -3511,10 +3506,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>92</v>
       </c>
       <c r="C39" s="13">
         <v>238174.1</v>
@@ -3529,7 +3524,7 @@
         <v>1939</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="13">
         <v>22659.957999999999</v>
@@ -3567,10 +3562,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C40" s="20">
         <v>100145</v>
@@ -3623,10 +3618,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="C41" s="13">
         <v>175954</v>
@@ -3641,28 +3636,28 @@
         <v>217</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" s="13">
         <v>15100</v>
@@ -3679,10 +3674,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="C42" s="13">
         <v>103070</v>
@@ -3697,34 +3692,34 @@
         <v>318.3</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" s="13">
         <v>2877</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="13">
         <v>11.089600000000001</v>
@@ -3735,10 +3730,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C43" s="20">
         <v>44655</v>
@@ -3791,10 +3786,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C44" s="20">
         <v>16361</v>
@@ -3847,10 +3842,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="27">
         <v>678359.1</v>
@@ -3903,10 +3898,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="C46" s="20">
         <v>11476</v>
@@ -3939,7 +3934,7 @@
         <v>27.956</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46" s="20">
         <v>2755</v>
@@ -3959,10 +3954,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C47" s="20">
         <v>27422</v>
@@ -4015,10 +4010,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="C48" s="20">
         <v>403</v>
@@ -4033,7 +4028,7 @@
         <v>45.42</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="20">
         <v>179.67699999999999</v>
@@ -4057,10 +4052,10 @@
         <v>2541</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="20">
         <v>2.5979999999999999</v>
@@ -4071,10 +4066,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="C49" s="20">
         <v>32246</v>
@@ -4127,10 +4122,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C50" s="20">
         <v>1130</v>
@@ -4163,7 +4158,7 @@
         <v>92.331999999999994</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" s="20">
         <v>2533</v>
@@ -4183,10 +4178,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="C51" s="16">
         <v>23853</v>
@@ -4239,10 +4234,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="C52" s="20">
         <v>24586</v>
@@ -4295,10 +4290,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="C53" s="20">
         <v>3613</v>
@@ -4331,16 +4326,16 @@
         <v>167.554</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53" s="20">
         <v>2229</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="20">
         <v>95.445599999999999</v>
@@ -4351,10 +4346,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="C54" s="20">
         <v>11137</v>
@@ -4372,31 +4367,31 @@
         <v>1505</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N54" s="20">
         <v>2168</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="20">
         <v>915.50620000000004</v>
@@ -4407,10 +4402,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="C55" s="20">
         <v>124019</v>
@@ -4463,10 +4458,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C56" s="20">
         <v>126700</v>
@@ -4519,10 +4514,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>127</v>
       </c>
       <c r="C57" s="13">
         <v>92377</v>
@@ -4575,10 +4570,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="C58" s="20">
         <v>19671</v>
@@ -4611,7 +4606,7 @@
         <v>175.339</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N58" s="20">
         <v>2545</v>
@@ -4631,10 +4626,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="C59" s="20">
         <v>7230</v>
@@ -4673,10 +4668,10 @@
         <v>2369</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="20">
         <v>118.1507</v>
@@ -4687,10 +4682,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="C60" s="16">
         <v>5679</v>
@@ -4743,10 +4738,10 @@
     </row>
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="27">
         <v>511542</v>
@@ -4799,10 +4794,10 @@
     </row>
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="33">
         <v>3008063.3719000001</v>
@@ -4855,10 +4850,10 @@
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="33">
         <v>10402845.0506</v>
@@ -4911,10 +4906,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="37">
         <v>2041468.7</v>
@@ -4967,10 +4962,10 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="40">
         <v>2515514.2400000002</v>
@@ -5023,10 +5018,10 @@
     </row>
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="43">
         <v>13410908.422499999</v>
@@ -5079,10 +5074,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C67" s="40">
         <v>1178938.9719</v>
@@ -5135,10 +5130,10 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="40">
         <v>1394744.2222</v>
@@ -5191,10 +5186,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="40">
         <v>247027.3</v>
@@ -5247,10 +5242,10 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="40">
         <v>666683</v>
@@ -5303,10 +5298,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="40">
         <v>511542</v>
@@ -5359,10 +5354,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="40">
         <v>524177.67190000002</v>
@@ -5415,10 +5410,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="40">
         <v>986457.59999999998</v>
@@ -5471,10 +5466,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="40">
         <v>578214.1</v>
@@ -5527,10 +5522,10 @@
     </row>
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="43">
         <v>211525</v>
@@ -5583,10 +5578,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="40">
         <v>449245.94</v>
@@ -5639,10 +5634,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" s="40">
         <v>1770860.2</v>
@@ -5695,10 +5690,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" s="40">
         <v>425430.48959999997</v>
@@ -5751,10 +5746,10 @@
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="43">
         <v>3774028.9286000002</v>
@@ -5807,10 +5802,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="40">
         <v>926417.1</v>
@@ -5863,10 +5858,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="40">
         <v>2906422.19</v>
@@ -5919,10 +5914,10 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="40">
         <v>2081646.2719000001</v>
@@ -5975,10 +5970,10 @@
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="43">
         <v>7496422.8606000002</v>
@@ -6031,10 +6026,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="40">
         <v>1376453.1719</v>
@@ -6087,10 +6082,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="40">
         <v>148655</v>
@@ -6143,10 +6138,10 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" s="40">
         <v>1163323.2</v>
@@ -6199,10 +6194,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C87" s="40">
         <v>1476413.12</v>
@@ -6255,10 +6250,10 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C88" s="40">
         <v>468241</v>
@@ -6311,10 +6306,10 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="40">
         <v>5017833.0199999996</v>
@@ -6367,10 +6362,10 @@
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C90" s="43">
         <v>3668784.9106000001</v>
@@ -6423,10 +6418,10 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="40">
         <v>1810969.2719000001</v>
@@ -6479,10 +6474,10 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" s="40">
         <v>269295</v>
@@ -6535,10 +6530,10 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" s="40">
         <v>4548.1000000000004</v>
@@ -6591,10 +6586,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C94" s="40">
         <v>116595.9</v>
@@ -6647,10 +6642,10 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C95" s="40">
         <v>865853.54969999997</v>
@@ -6703,10 +6698,10 @@
     </row>
     <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C96" s="43">
         <v>832383.3</v>
@@ -6759,10 +6754,10 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" s="40">
         <v>2249219.2719000001</v>
@@ -6815,10 +6810,10 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="40">
         <v>762952.2</v>
@@ -6871,10 +6866,10 @@
     </row>
     <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" s="43">
         <v>958913.0405</v>
@@ -6947,27 +6942,27 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
@@ -6975,27 +6970,27 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7005,7 +7000,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -550,6 +550,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 18/11/2021).</t>
   </si>
   <si>
@@ -562,88 +565,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +580,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,15 +696,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1399,7 +1315,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6960,18 +6876,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>177</v>
       </c>
+    </row>
+    <row r="109" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -6984,25 +6900,27 @@
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 18/11/2021).</t>
@@ -6396,40 +6396,40 @@
         <v>164</v>
       </c>
       <c r="C92" s="40">
-        <v>269295</v>
+        <v>268076</v>
       </c>
       <c r="D92" s="40">
-        <v>98811.173599999995</v>
+        <v>98624.173599999995</v>
       </c>
       <c r="E92" s="40">
-        <v>40839.873599999999</v>
+        <v>40694.873599999999</v>
       </c>
       <c r="F92" s="40">
-        <v>70254.720000000001</v>
+        <v>69812.42</v>
       </c>
       <c r="G92" s="41">
         <v>5762</v>
       </c>
       <c r="H92" s="40">
-        <v>55631.637000000002</v>
+        <v>55493.853000000003</v>
       </c>
       <c r="I92" s="40">
-        <v>20711.584999999999</v>
+        <v>20710.272000000001</v>
       </c>
       <c r="J92" s="40">
-        <v>43916.201999999997</v>
+        <v>43778.417999999998</v>
       </c>
       <c r="K92" s="40">
-        <v>53959.124000000003</v>
+        <v>53821.423999999999</v>
       </c>
       <c r="L92" s="40">
         <v>11687.286</v>
       </c>
       <c r="M92" s="41">
-        <v>1647.3720000000001</v>
+        <v>1647.287</v>
       </c>
       <c r="N92" s="40">
-        <v>2492.20310055139</v>
+        <v>2492.1058054639302</v>
       </c>
       <c r="O92" s="40">
         <v>1984419.07</v>
@@ -6441,7 +6441,7 @@
         <v>5222.8811999999998</v>
       </c>
       <c r="R92" s="41">
-        <v>275306.3493</v>
+        <v>274792.85930000001</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab23.xlsx
+++ b/AfDD_2022_Annex_Table_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
     <t>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 18/11/2021).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -6918,7 +6918,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
